--- a/database/xlsx/lastdb__tables.xlsx
+++ b/database/xlsx/lastdb__tables.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="285">
   <si>
     <t>LAST Images and Sources - Table List</t>
   </si>
@@ -691,6 +691,24 @@
     <t>Spare3</t>
   </si>
   <si>
+    <t># Eran @Todo: replace with real field names</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t># Used with AstroDb.unitTest</t>
+  </si>
+  <si>
     <t>(common_image_fields)</t>
   </si>
   <si>
@@ -793,7 +811,10 @@
     <t>CoaddImageID</t>
   </si>
   <si>
-    <t># (common_source_fields)</t>
+    <t>SourceID**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (common_source_fields)</t>
   </si>
   <si>
     <t>StackSrcID</t>
@@ -935,7 +956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -983,6 +1004,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF0000FF"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -991,6 +1022,10 @@
     <font>
       <b/>
       <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <b/>
@@ -1040,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1084,35 +1119,44 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1685,12 +1729,12 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>50</v>
@@ -1698,7 +1742,7 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>50</v>
@@ -1706,25 +1750,25 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1779,47 +1823,47 @@
       <c r="H1" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="21"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>198</v>
+      <c r="A2" s="20" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>200</v>
+      <c r="A3" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>225</v>
+      <c r="A4" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="s">
-        <v>222</v>
+      <c r="A5" s="20" t="s">
+        <v>228</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="s">
-        <v>217</v>
+      <c r="A6" s="20" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="22"/>
+      <c r="C12" s="24"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1867,12 +1911,12 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>50</v>
@@ -1880,39 +1924,39 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="s">
-        <v>227</v>
+      <c r="A5" s="20" t="s">
+        <v>233</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="s">
-        <v>228</v>
+      <c r="A6" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>229</v>
+      <c r="A7" s="20" t="s">
+        <v>235</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>230</v>
+      <c r="A8" s="20" t="s">
+        <v>236</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -1964,12 +2008,12 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>50</v>
@@ -1977,7 +2021,7 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>50</v>
@@ -1985,15 +2029,15 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>53</v>
@@ -2001,7 +2045,7 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>53</v>
@@ -2009,7 +2053,7 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>53</v>
@@ -2017,7 +2061,7 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>53</v>
@@ -2067,9 +2111,26 @@
         <v>197</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+    </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>232</v>
+      <c r="A4" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2120,24 +2181,24 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>234</v>
+      <c r="C3" s="22" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>234</v>
+      <c r="C4" s="26" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5">
@@ -2150,7 +2211,7 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>53</v>
@@ -2158,7 +2219,7 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>53</v>
@@ -2174,7 +2235,7 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>59</v>
@@ -2182,7 +2243,7 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>59</v>
@@ -2190,7 +2251,7 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>59</v>
@@ -2198,7 +2259,7 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>59</v>
@@ -2206,7 +2267,7 @@
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>59</v>
@@ -2214,7 +2275,7 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>59</v>
@@ -2222,7 +2283,7 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>59</v>
@@ -2230,7 +2291,7 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>59</v>
@@ -2238,7 +2299,7 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>59</v>
@@ -2246,7 +2307,7 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>59</v>
@@ -2254,7 +2315,7 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>59</v>
@@ -2262,7 +2323,7 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>59</v>
@@ -2270,7 +2331,7 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>59</v>
@@ -2278,7 +2339,7 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>59</v>
@@ -2286,7 +2347,7 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>59</v>
@@ -2294,7 +2355,7 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>59</v>
@@ -2302,7 +2363,7 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>59</v>
@@ -2310,7 +2371,7 @@
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>59</v>
@@ -2318,7 +2379,7 @@
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>59</v>
@@ -2326,34 +2387,34 @@
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="s">
-        <v>262</v>
+      <c r="A31" s="21" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2444,151 +2505,151 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5">
-      <c r="A5" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6">
-      <c r="A6" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="A6" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8">
-      <c r="A8" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="A8" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9">
-      <c r="A9" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="A9" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="A10" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="A11" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12">
-      <c r="A12" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13">
-      <c r="A13" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14">
-      <c r="A14" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="A14" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3744,6 +3805,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.43"/>
+    <col customWidth="1" min="2" max="2" width="16.29"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
@@ -3769,6 +3834,46 @@
       </c>
       <c r="H1" s="13" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3826,25 +3931,37 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3888,160 +4005,160 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="s">
-        <v>203</v>
+      <c r="A6" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>204</v>
+      <c r="A7" s="20" t="s">
+        <v>210</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>205</v>
+      <c r="A8" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="s">
-        <v>207</v>
+      <c r="A9" s="20" t="s">
+        <v>213</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>208</v>
+      <c r="A10" s="20" t="s">
+        <v>214</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="s">
-        <v>209</v>
+      <c r="A11" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>210</v>
+      <c r="A12" s="20" t="s">
+        <v>216</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="s">
-        <v>211</v>
+      <c r="A13" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
-        <v>212</v>
+      <c r="A14" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
-        <v>213</v>
+      <c r="A15" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="s">
-        <v>214</v>
+      <c r="A16" s="20" t="s">
+        <v>220</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>215</v>
+      <c r="A17" s="20" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>216</v>
+      <c r="A18" s="20" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>217</v>
+      <c r="A19" s="20" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
-        <v>218</v>
+      <c r="A20" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>219</v>
+      <c r="C20" s="22" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
-        <v>220</v>
+      <c r="A21" s="21" t="s">
+        <v>226</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>219</v>
+      <c r="C21" s="22" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/database/xlsx/lastdb__tables.xlsx
+++ b/database/xlsx/lastdb__tables.xlsx
@@ -15,14 +15,14 @@
     <sheet state="visible" name="(images_astrometric_data)" sheetId="10" r:id="rId13"/>
     <sheet state="visible" name="(image_mask_data)" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="(images_photometric_data)" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="tables_list" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="stacked_cropped_images" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="calibration_images" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="reference_images" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="coadded_images" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="stacked_cropped_sources" sheetId="18" r:id="rId21"/>
-    <sheet state="visible" name="reference_sources" sheetId="19" r:id="rId22"/>
-    <sheet state="visible" name="transient_sources" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="(tables_list)" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="(#stacked_cropped_images)" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="(#calibration_images)" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="(#reference_images)" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="(#coadded_images)" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="(#stacked_cropped_sources)" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="(#reference_sources)" sheetId="19" r:id="rId22"/>
+    <sheet state="visible" name="(#transient_sources)" sheetId="20" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="434">
   <si>
     <t>LAST Images and Sources - Table List</t>
   </si>
@@ -700,16 +700,19 @@
     <t># CCDSEC - @Todo</t>
   </si>
   <si>
-    <t>XMIN</t>
-  </si>
-  <si>
-    <t>XMAX</t>
-  </si>
-  <si>
-    <t>YMIN</t>
-  </si>
-  <si>
-    <t>YMAX</t>
+    <t>X_MIN</t>
+  </si>
+  <si>
+    <t>XMIN is reserved in Postgres</t>
+  </si>
+  <si>
+    <t>X_MAX</t>
+  </si>
+  <si>
+    <t>Y_MIN</t>
+  </si>
+  <si>
+    <t>Y_MAX</t>
   </si>
   <si>
     <t>XMIN_NOOVERLAP</t>
@@ -2266,7 +2269,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>54</v>
@@ -2274,18 +2277,18 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>54</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>54</v>
@@ -2301,7 +2304,7 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>54</v>
@@ -2309,7 +2312,7 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -2317,7 +2320,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>54</v>
@@ -2362,18 +2365,18 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>112</v>
@@ -2381,7 +2384,7 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>112</v>
@@ -2389,7 +2392,7 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>112</v>
@@ -2397,7 +2400,7 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>112</v>
@@ -2405,7 +2408,7 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>112</v>
@@ -2413,7 +2416,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>112</v>
@@ -2421,7 +2424,7 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>112</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>112</v>
@@ -2437,7 +2440,7 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>112</v>
@@ -2445,7 +2448,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>112</v>
@@ -2453,7 +2456,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>112</v>
@@ -2461,7 +2464,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>112</v>
@@ -2469,7 +2472,7 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>112</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>112</v>
@@ -2485,7 +2488,7 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>112</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>112</v>
@@ -2501,7 +2504,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>112</v>
@@ -2509,7 +2512,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>112</v>
@@ -2517,7 +2520,7 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>112</v>
@@ -2525,7 +2528,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>112</v>
@@ -2533,7 +2536,7 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>112</v>
@@ -2541,7 +2544,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>112</v>
@@ -2549,7 +2552,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>112</v>
@@ -2557,7 +2560,7 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>112</v>
@@ -2565,7 +2568,7 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>112</v>
@@ -2573,7 +2576,7 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>112</v>
@@ -2581,7 +2584,7 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>112</v>
@@ -2589,7 +2592,7 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>112</v>
@@ -2597,7 +2600,7 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>112</v>
@@ -2605,7 +2608,7 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>112</v>
@@ -2613,7 +2616,7 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>112</v>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>112</v>
@@ -2707,7 +2710,7 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>54</v>
@@ -2715,18 +2718,18 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>54</v>
@@ -2734,13 +2737,13 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7">
@@ -2749,13 +2752,13 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2821,7 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>186</v>
@@ -2826,7 +2829,7 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>186</v>
@@ -2834,7 +2837,7 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>54</v>
@@ -2842,7 +2845,7 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>54</v>
@@ -2850,7 +2853,7 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>54</v>
@@ -2899,13 +2902,13 @@
         <v>48</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I1" s="39"/>
     </row>
@@ -2916,7 +2919,7 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>186</v>
@@ -2924,7 +2927,7 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>186</v>
@@ -2932,18 +2935,18 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12">
@@ -2984,13 +2987,13 @@
         <v>48</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
@@ -3000,7 +3003,7 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>186</v>
@@ -3008,7 +3011,7 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>186</v>
@@ -3016,15 +3019,15 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>54</v>
@@ -3032,7 +3035,7 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>54</v>
@@ -3040,7 +3043,7 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -3081,13 +3084,13 @@
         <v>48</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
@@ -3097,7 +3100,7 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>186</v>
@@ -3105,7 +3108,7 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>186</v>
@@ -3113,7 +3116,7 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>186</v>
@@ -3121,7 +3124,7 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>54</v>
@@ -3129,7 +3132,7 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>54</v>
@@ -3137,7 +3140,7 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -3145,7 +3148,7 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>54</v>
@@ -3188,35 +3191,35 @@
         <v>48</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>390</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="5">
@@ -3229,7 +3232,7 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>54</v>
@@ -3237,7 +3240,7 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>54</v>
@@ -3253,7 +3256,7 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>59</v>
@@ -3261,7 +3264,7 @@
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>59</v>
@@ -3269,7 +3272,7 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>59</v>
@@ -3277,7 +3280,7 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>59</v>
@@ -3285,7 +3288,7 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>59</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>59</v>
@@ -3301,7 +3304,7 @@
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>59</v>
@@ -3309,7 +3312,7 @@
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>59</v>
@@ -3317,7 +3320,7 @@
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>59</v>
@@ -3325,7 +3328,7 @@
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>59</v>
@@ -3333,7 +3336,7 @@
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>59</v>
@@ -3341,7 +3344,7 @@
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>59</v>
@@ -3349,7 +3352,7 @@
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>59</v>
@@ -3357,7 +3360,7 @@
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>59</v>
@@ -3365,7 +3368,7 @@
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>59</v>
@@ -3373,7 +3376,7 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>59</v>
@@ -3381,7 +3384,7 @@
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>59</v>
@@ -3389,7 +3392,7 @@
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>59</v>
@@ -3397,7 +3400,7 @@
     </row>
     <row r="27">
       <c r="A27" s="18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>59</v>
@@ -3405,34 +3408,34 @@
     </row>
     <row r="28">
       <c r="A28" s="18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>416</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3467,13 +3470,13 @@
         <v>48</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4188,18 +4191,18 @@
         <v>48</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>186</v>
@@ -4210,20 +4213,20 @@
     </row>
     <row r="4">
       <c r="A4" s="42" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B4" s="43" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
     </row>
     <row r="5">
       <c r="A5" s="42" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>186</v>
@@ -4234,7 +4237,7 @@
     </row>
     <row r="6">
       <c r="A6" s="42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>54</v>
@@ -4245,7 +4248,7 @@
     </row>
     <row r="7">
       <c r="A7" s="42" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B7" s="43" t="s">
         <v>54</v>
@@ -4256,7 +4259,7 @@
     </row>
     <row r="8">
       <c r="A8" s="42" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B8" s="43" t="s">
         <v>54</v>
@@ -4267,7 +4270,7 @@
     </row>
     <row r="9">
       <c r="A9" s="42" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B9" s="43" t="s">
         <v>54</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="10">
       <c r="A10" s="42" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B10" s="43" t="s">
         <v>54</v>
@@ -4289,46 +4292,46 @@
     </row>
     <row r="11">
       <c r="A11" s="42" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B11" s="43" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
     </row>
     <row r="12">
       <c r="A12" s="42" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
     </row>
     <row r="13">
       <c r="A13" s="42" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B13" s="43" t="s">
         <v>54</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
     </row>
     <row r="14">
       <c r="A14" s="42" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>54</v>
@@ -5002,32 +5005,35 @@
       <c r="B16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="31" t="s">
         <v>200</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>54</v>
       </c>
+      <c r="C17" s="10" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>201</v>
+      <c r="A18" s="31" t="s">
+        <v>202</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>202</v>
+      <c r="A19" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="s">
-        <v>203</v>
+      <c r="A20" s="31" t="s">
+        <v>204</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>54</v>
@@ -5035,7 +5041,7 @@
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>54</v>
@@ -5043,7 +5049,7 @@
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>54</v>
@@ -5051,7 +5057,7 @@
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>54</v>
@@ -5059,7 +5065,7 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>54</v>
@@ -5070,49 +5076,49 @@
     </row>
     <row r="26">
       <c r="A26" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5160,7 +5166,7 @@
     </row>
     <row r="2">
       <c r="A2" s="34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5169,7 +5175,7 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
@@ -5181,13 +5187,13 @@
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>54</v>
@@ -5195,7 +5201,7 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>54</v>
@@ -5203,10 +5209,10 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
@@ -5214,15 +5220,15 @@
     </row>
     <row r="10">
       <c r="A10" s="37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>54</v>
@@ -5230,7 +5236,7 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>54</v>
@@ -5238,7 +5244,7 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>54</v>
@@ -5246,7 +5252,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>54</v>
@@ -5258,13 +5264,13 @@
     </row>
     <row r="16">
       <c r="A16" s="37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>54</v>
@@ -5272,7 +5278,7 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>54</v>
@@ -5280,7 +5286,7 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>54</v>
@@ -5288,7 +5294,7 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>54</v>
@@ -5296,7 +5302,7 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>54</v>
@@ -5304,7 +5310,7 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>54</v>
@@ -5312,7 +5318,7 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>54</v>
@@ -5320,7 +5326,7 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>54</v>
@@ -5328,7 +5334,7 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>54</v>
@@ -5336,7 +5342,7 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>54</v>
@@ -5344,7 +5350,7 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>54</v>
@@ -5352,7 +5358,7 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>54</v>
@@ -5360,7 +5366,7 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>54</v>
@@ -5368,7 +5374,7 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>54</v>
@@ -5376,7 +5382,7 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>54</v>
@@ -5384,7 +5390,7 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>54</v>
@@ -5392,7 +5398,7 @@
     </row>
     <row r="33">
       <c r="A33" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>54</v>
@@ -5404,13 +5410,13 @@
     </row>
     <row r="35">
       <c r="A35" s="37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B35" s="9"/>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>54</v>
@@ -5418,7 +5424,7 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>54</v>
@@ -5426,7 +5432,7 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>54</v>
@@ -5434,7 +5440,7 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>54</v>
@@ -5446,13 +5452,13 @@
     </row>
     <row r="41">
       <c r="A41" s="37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B41" s="9"/>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>54</v>
@@ -5460,7 +5466,7 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>54</v>
@@ -5468,7 +5474,7 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>54</v>
@@ -5476,7 +5482,7 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>54</v>
@@ -5484,7 +5490,7 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>54</v>
@@ -5492,7 +5498,7 @@
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>54</v>
@@ -5500,7 +5506,7 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>54</v>
@@ -5548,7 +5554,7 @@
     </row>
     <row r="2">
       <c r="A2" s="34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5568,7 +5574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B5" s="9"/>
     </row>
@@ -5578,27 +5584,27 @@
     </row>
     <row r="7">
       <c r="A7" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>186</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E7" s="30"/>
     </row>
     <row r="8">
       <c r="A8" s="28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>137</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8" s="30"/>
     </row>
@@ -5607,7 +5613,7 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5647,18 +5653,18 @@
         <v>48</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3">
@@ -5666,7 +5672,7 @@
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>54</v>
@@ -5674,7 +5680,7 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>54</v>
@@ -5682,7 +5688,7 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>54</v>
@@ -5690,7 +5696,7 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>54</v>
@@ -5698,7 +5704,7 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -5706,7 +5712,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>54</v>
@@ -5714,7 +5720,7 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>54</v>
@@ -5722,7 +5728,7 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>54</v>
@@ -5730,7 +5736,7 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>54</v>
@@ -5738,7 +5744,7 @@
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>54</v>
@@ -5746,7 +5752,7 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>54</v>
@@ -5754,7 +5760,7 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>54</v>
@@ -5762,7 +5768,7 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>54</v>
@@ -5770,7 +5776,7 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>54</v>
@@ -5778,7 +5784,7 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>54</v>
@@ -5786,7 +5792,7 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>54</v>
@@ -5794,7 +5800,7 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>54</v>
@@ -5802,7 +5808,7 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>54</v>
@@ -5810,7 +5816,7 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>54</v>
@@ -5818,7 +5824,7 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>54</v>
@@ -5826,7 +5832,7 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>54</v>
@@ -5834,7 +5840,7 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>54</v>
@@ -5842,7 +5848,7 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>54</v>
@@ -5850,7 +5856,7 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>54</v>
@@ -5858,7 +5864,7 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>54</v>
@@ -5866,7 +5872,7 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>54</v>
@@ -5874,7 +5880,7 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>54</v>
@@ -5882,7 +5888,7 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>54</v>
@@ -5890,7 +5896,7 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>54</v>
@@ -5898,7 +5904,7 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>54</v>
@@ -5906,7 +5912,7 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>54</v>
@@ -5914,7 +5920,7 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>54</v>
@@ -5922,7 +5928,7 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>54</v>
@@ -5930,7 +5936,7 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>54</v>
@@ -5938,7 +5944,7 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>54</v>
@@ -5946,7 +5952,7 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>54</v>
@@ -5954,7 +5960,7 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>54</v>
@@ -5962,7 +5968,7 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>54</v>
@@ -5970,7 +5976,7 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>54</v>
@@ -5978,7 +5984,7 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>54</v>
@@ -5986,7 +5992,7 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>54</v>
@@ -5994,7 +6000,7 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>54</v>
@@ -6002,7 +6008,7 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>54</v>
@@ -6010,7 +6016,7 @@
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>54</v>
@@ -6018,7 +6024,7 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>54</v>
@@ -6026,7 +6032,7 @@
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>54</v>
@@ -6034,7 +6040,7 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>54</v>
@@ -6042,7 +6048,7 @@
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>54</v>
@@ -6050,7 +6056,7 @@
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>54</v>
@@ -6058,7 +6064,7 @@
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>54</v>
@@ -6111,18 +6117,18 @@
     </row>
     <row r="3">
       <c r="A3" s="38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>186</v>
@@ -6134,7 +6140,7 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>54</v>
@@ -6142,7 +6148,7 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>54</v>
@@ -6150,7 +6156,7 @@
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>54</v>
@@ -6158,7 +6164,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>54</v>
@@ -6166,7 +6172,7 @@
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>54</v>
@@ -6174,7 +6180,7 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>54</v>
@@ -6182,10 +6188,10 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
